--- a/planilha/fevereiro/Escala ASO1 - Jose Cândido - 1° Turno - Fevereiro.xlsx
+++ b/planilha/fevereiro/Escala ASO1 - Jose Cândido - 1° Turno - Fevereiro.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Escala ASO1 - Jose Cândido - 1° Turno - Fevereiro</t>
   </si>
@@ -88,10 +88,10 @@
     <t>5</t>
   </si>
   <si>
-    <t>Barbara Andrade</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>Diego Salerno</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>Guaracy Dantas</t>
@@ -103,10 +103,7 @@
     <t>Gustavo Concolato</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>29/01/20</t>
+    <t>31/01/20</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1215,9 @@
         <v>8</v>
       </c>
       <c r="E7" s="5" t="s"/>
-      <c r="F7" s="5" t="s"/>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1227,9 +1226,7 @@
       </c>
       <c r="I7" s="5" t="s"/>
       <c r="J7" s="5" t="s"/>
-      <c r="K7" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="K7" s="5" t="s"/>
       <c r="L7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1240,11 +1237,15 @@
         <v>7</v>
       </c>
       <c r="O7" s="5" t="s"/>
-      <c r="P7" s="5" t="s"/>
+      <c r="P7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="5" t="s"/>
+      <c r="R7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="S7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1264,9 @@
         <v>8</v>
       </c>
       <c r="Z7" s="5" t="s"/>
-      <c r="AA7" s="5" t="s"/>
+      <c r="AA7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AB7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s"/>
       <c r="D9" s="5" t="s"/>
@@ -2105,7 +2108,7 @@
     <row r="29" spans="1:48"/>
     <row r="30" spans="1:48">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
